--- a/medicine/Enfance/Les_Assassins_de_Rome/Les_Assassins_de_Rome.xlsx
+++ b/medicine/Enfance/Les_Assassins_de_Rome/Les_Assassins_de_Rome.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les Assassins de Rome (The Assassins of Rome) est le quatrième volume de la série de romans écrits par Caroline Lawrence, Les Mystères romains, publié en France, aux éditions Milan, en 2003. L'action de ce roman historique se situe sous la Rome antique, à Rome.
@@ -512,7 +524,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le déjà célèbre quatuor est invité chez l’empereur Titus, menacé d'assassinat.
 </t>
@@ -543,7 +557,9 @@
           <t>Parutions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Milan (Poche Histoire), 2003
 Milan (Poche Histoire), 12 novembre 2011,  (ISBN 9782745947581)</t>
@@ -574,7 +590,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Site officiel des éditions Milan
  Portail de la Rome antique   Portail de la littérature américaine   Portail de la littérature d’enfance et de jeunesse                   </t>
